--- a/data/trans_bre/P23_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Edad-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-11.65952706707023</v>
+        <v>-11.74680840635798</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.463439520936731</v>
+        <v>-8.745975773730182</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-14.70505753730381</v>
+        <v>-13.9553660976111</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2617482495656359</v>
+        <v>-0.2600419534496839</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2112048877684165</v>
+        <v>-0.2212382246121621</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3783985683010018</v>
+        <v>-0.3731744232310056</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5334141551278304</v>
+        <v>0.4341987196332743</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.278466345197016</v>
+        <v>4.903679835727779</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.451661575707739</v>
+        <v>-1.341971165697778</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.0147714523438948</v>
+        <v>0.01139725738335446</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1264841027669744</v>
+        <v>0.1519810239553111</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.03797885117156354</v>
+        <v>-0.03959350410354853</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-22.67415240071863</v>
+        <v>-22.10651018480463</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-16.08342216281952</v>
+        <v>-15.68947575158217</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-13.77707995014757</v>
+        <v>-12.93488656013161</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3961073624546378</v>
+        <v>-0.3863331347784922</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2953301785008065</v>
+        <v>-0.2955279635993068</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2790558642343636</v>
+        <v>-0.2664445334651181</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-11.73474189775934</v>
+        <v>-10.76519488179322</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-4.39173553043376</v>
+        <v>-4.761161274416549</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-1.707451444876232</v>
+        <v>-1.649824768689145</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.2237457901968704</v>
+        <v>-0.2038292309490179</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.09116792660972511</v>
+        <v>-0.09656854406791014</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.04090233376548588</v>
+        <v>-0.03786436404600098</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-21.8352531616264</v>
+        <v>-21.07513139639835</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-18.28847107237864</v>
+        <v>-18.28882580424946</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-12.10994164018922</v>
+        <v>-12.1143111475426</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.3864086890773787</v>
+        <v>-0.3798628229558526</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3592790792617566</v>
+        <v>-0.366182273346958</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2818265732315653</v>
+        <v>-0.2812671817065812</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-10.59184207188147</v>
+        <v>-10.46819593693137</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-7.466651794370764</v>
+        <v>-8.070525942851505</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.202743122791862</v>
+        <v>-1.348601129824613</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>-0.2077722346994678</v>
+        <v>-0.206856060189949</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.164274267308242</v>
+        <v>-0.1730524814687467</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.03252132170025705</v>
+        <v>-0.03493830017766283</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-22.79922707358122</v>
+        <v>-23.18687835370694</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-12.77342287887075</v>
+        <v>-12.32697196588378</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-13.30083900077424</v>
+        <v>-12.96646226707253</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4744005933022721</v>
+        <v>-0.4765489929913151</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2610691491218267</v>
+        <v>-0.2578167181245029</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2833187616461363</v>
+        <v>-0.2811428190590924</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-11.56372179360838</v>
+        <v>-11.30426485078576</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.4195375399938386</v>
+        <v>-0.5165661739292879</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-1.905660946805295</v>
+        <v>-1.880910776456271</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.2723340547426202</v>
+        <v>-0.268707140236852</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.009852024693026941</v>
+        <v>-0.01096002449913448</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.04708789087389841</v>
+        <v>-0.04562969443401451</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-27.04772946879466</v>
+        <v>-27.54913352144152</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-27.62410492730383</v>
+        <v>-27.09289407342792</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-14.02649640622367</v>
+        <v>-13.96306398302721</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.7416661290606666</v>
+        <v>-0.7494366071375445</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6856055267773952</v>
+        <v>-0.6878011803947587</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.4090601662586843</v>
+        <v>-0.410416378436437</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-15.50269474952528</v>
+        <v>-16.05504696724712</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-15.12080198666684</v>
+        <v>-15.14398345431247</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-2.056232912761769</v>
+        <v>-2.070830425403718</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.5146722151364864</v>
+        <v>-0.5272715928741328</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.4671757884801893</v>
+        <v>-0.4643932078228941</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.07343222589935082</v>
+        <v>-0.07625992084331383</v>
       </c>
     </row>
     <row r="19">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-20.96557879444437</v>
+        <v>-21.15328144229925</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-16.41629007978964</v>
+        <v>-16.57067240581803</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-14.66227503081882</v>
+        <v>-15.19264907558605</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.9550057860922618</v>
+        <v>-0.9584688338035634</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8179478728852813</v>
+        <v>-0.8248875497207558</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7074283388976774</v>
+        <v>-0.7119970229327136</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-11.88416136061395</v>
+        <v>-11.81566654827376</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-5.89306086454866</v>
+        <v>-5.860879536380696</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-4.439046528718061</v>
+        <v>-4.434302942509065</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.7802786402628746</v>
+        <v>-0.7887509693860411</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.4386933813807509</v>
+        <v>-0.4016336564517407</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.31196994831876</v>
+        <v>-0.3058172825792275</v>
       </c>
     </row>
     <row r="22">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-14.12733709085156</v>
+        <v>-14.17794155456404</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-14.45664452568881</v>
+        <v>-14.96636878467302</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-11.40707635047879</v>
+        <v>-11.73329944301325</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.9701295508379334</v>
+        <v>-0.9677270273389686</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.9780276924553135</v>
+        <v>-0.9801320549329957</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.929239093466849</v>
+        <v>-0.9248108825713871</v>
       </c>
     </row>
     <row r="24">
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-5.066980469778162</v>
+        <v>-5.415754313925827</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-6.115249689014738</v>
+        <v>-5.950957468074496</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-4.33819158362355</v>
+        <v>-4.177399368509287</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>-0.6366970842060514</v>
+        <v>-0.614633064025512</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.6838743085539584</v>
+        <v>-0.6799128410691941</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.4818955116451861</v>
+        <v>-0.5120293117233682</v>
       </c>
     </row>
     <row r="25">
@@ -1212,22 +1212,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-19.02802469529953</v>
+        <v>-18.95810947138029</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-14.31758902929715</v>
+        <v>-14.33874096505117</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-11.33305298488184</v>
+        <v>-11.22544850200932</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4374454969952593</v>
+        <v>-0.4376132489729002</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3540848749110742</v>
+        <v>-0.3540183939197776</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3115722298240422</v>
+        <v>-0.3090116528548988</v>
       </c>
     </row>
     <row r="27">
@@ -1238,22 +1238,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-14.47981802580964</v>
+        <v>-14.20459773446874</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-9.79964614406064</v>
+        <v>-9.752369165109251</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-6.53579949167796</v>
+        <v>-6.707637074891282</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.3524743790524191</v>
+        <v>-0.3484231314832267</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.2525886336661672</v>
+        <v>-0.2540189796406188</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1927896401100834</v>
+        <v>-0.196032906065613</v>
       </c>
     </row>
     <row r="28">
